--- a/StructureDefinition-profile-OperationDefinition.xlsx
+++ b/StructureDefinition-profile-OperationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7542879-06:00</t>
+    <t>2026-02-09T22:05:43.24593-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,106 @@
     <t>OperationDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>OperationDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.versionAlgorithm[x]` is will have a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>OperationDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the operation definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the operation definition.</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.copyright` is will have a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
+    <t>OperationDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.copyrightLabel` is will have a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
+    <t>OperationDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>OperationDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -920,10 +988,47 @@
     <t>OperationDefinition.parameter.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>OperationDefinition.parameter.extension:scope</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter.scope|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.parameter.scope from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If present, indicates that the parameter applies when the operation is being invoked at the specified level.</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.parameter.scope` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
+Element `OperationDefinition.parameter.scope` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
+    <t>OperationDefinition.parameter.extension:allowedType</t>
+  </si>
+  <si>
+    <t>allowedType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter.allowedType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.parameter.allowedType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Support for polymorphic types. If the parameter type is abstract, this element lists allowed sub-types for the parameter.</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.parameter.allowedType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
+Element `OperationDefinition.parameter.allowedType` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>OperationDefinition.parameter.modifierExtension</t>
@@ -1070,6 +1175,12 @@
   </si>
   <si>
     <t>OperationDefinition.parameter.binding.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>OperationDefinition.parameter.binding.modifierExtension</t>
@@ -1504,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1515,7 +1626,7 @@
   <cols>
     <col min="1" max="1" width="54.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1523,7 +1634,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.6875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2479,7 +2590,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2498,17 +2609,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2545,16 +2654,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2575,7 +2682,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2589,43 +2696,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2673,7 +2780,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2682,7 +2789,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2691,7 +2798,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2702,12 +2809,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2725,23 +2834,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2789,28 +2896,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2818,12 +2925,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2841,19 +2950,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2903,28 +3012,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2939,38 +3048,38 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3019,25 +3128,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3074,7 +3183,7 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>165</v>
@@ -3085,7 +3194,9 @@
       <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3148,13 +3259,13 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3162,10 +3273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3173,7 +3284,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3182,22 +3293,22 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3223,13 +3334,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3247,10 +3358,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3262,13 +3373,13 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3276,10 +3387,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3302,18 +3413,20 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3337,13 +3450,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3361,7 +3474,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -3370,19 +3483,19 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3390,10 +3503,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3416,7 +3529,7 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>186</v>
@@ -3425,11 +3538,9 @@
         <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O17" t="s" s="2">
         <v>188</v>
       </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3477,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3492,13 +3603,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3506,18 +3617,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3526,22 +3637,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3567,13 +3678,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3591,10 +3702,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3631,7 +3742,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3646,7 +3757,7 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>199</v>
@@ -3657,9 +3768,7 @@
       <c r="N19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3683,13 +3792,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3710,7 +3819,7 @@
         <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3722,7 +3831,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3750,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3771,9 +3880,11 @@
         <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3827,7 +3938,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3842,7 +3953,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3857,7 +3968,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3873,19 +3984,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3950,13 +4061,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3964,10 +4075,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3978,7 +4089,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3990,19 +4101,19 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4051,13 +4162,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4066,13 +4177,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4080,10 +4191,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4106,16 +4217,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4141,13 +4252,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4165,7 +4276,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4180,7 +4291,7 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4194,10 +4305,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4220,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>234</v>
@@ -4279,7 +4390,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4300,18 +4411,18 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4322,7 +4433,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4334,18 +4445,20 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4393,13 +4506,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4408,7 +4521,7 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4422,10 +4535,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4433,10 +4546,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4448,15 +4561,17 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4481,13 +4596,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4505,13 +4620,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4520,7 +4635,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4534,10 +4649,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4560,15 +4675,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4617,7 +4734,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4632,24 +4749,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4672,16 +4789,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4731,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4746,7 +4863,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4760,10 +4877,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4771,10 +4888,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4789,14 +4906,12 @@
         <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4821,13 +4936,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4845,13 +4960,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4860,7 +4975,7 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -4874,10 +4989,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4885,7 +5000,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -4897,16 +5012,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4957,10 +5072,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -4986,10 +5101,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4997,7 +5112,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
@@ -5012,15 +5127,17 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5069,10 +5186,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>86</v>
@@ -5084,7 +5201,7 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5098,10 +5215,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5109,10 +5226,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5124,15 +5241,17 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5157,13 +5276,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5181,13 +5300,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5196,7 +5315,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5210,10 +5329,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5221,7 +5340,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5233,20 +5352,18 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5295,10 +5412,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -5324,10 +5441,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5335,7 +5452,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5347,20 +5464,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5409,10 +5524,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5438,10 +5553,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5449,10 +5564,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5461,20 +5576,18 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5523,19 +5636,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5552,10 +5665,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5578,15 +5691,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5635,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5647,13 +5762,13 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5664,21 +5779,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5690,16 +5805,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5749,25 +5864,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5778,14 +5893,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5798,26 +5913,24 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5865,7 +5978,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5877,13 +5990,13 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5894,10 +6007,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5905,7 +6018,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>86</v>
@@ -5920,17 +6033,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5979,10 +6090,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>86</v>
@@ -5991,13 +6102,13 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6008,10 +6119,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6019,10 +6130,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6034,17 +6145,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6069,43 +6178,41 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6122,21 +6229,23 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6148,15 +6257,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6205,19 +6316,19 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6234,21 +6345,23 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6260,15 +6373,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6320,16 +6435,16 @@
         <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6346,42 +6461,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6429,25 +6548,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6458,10 +6577,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6469,7 +6588,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6487,13 +6606,13 @@
         <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6519,13 +6638,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6543,16 +6662,16 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>98</v>
@@ -6572,10 +6691,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6583,10 +6702,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6598,16 +6717,16 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6633,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6657,13 +6776,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6686,10 +6805,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6697,7 +6816,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
@@ -6712,13 +6831,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6745,13 +6864,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6769,16 +6888,16 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>98</v>
@@ -6798,10 +6917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6809,7 +6928,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -6824,13 +6943,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6881,10 +7000,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -6910,10 +7029,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6936,13 +7055,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6993,7 +7112,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7005,13 +7124,13 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7022,21 +7141,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7048,16 +7167,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7083,13 +7202,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7107,25 +7226,25 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7136,14 +7255,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7156,26 +7275,24 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7223,7 +7340,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7235,13 +7352,13 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7252,18 +7369,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7281,14 +7398,12 @@
         <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7313,13 +7428,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7337,16 +7452,16 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
@@ -7366,10 +7481,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7377,7 +7492,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
@@ -7392,17 +7507,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7451,10 +7564,10 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>86</v>
@@ -7480,10 +7593,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7494,7 +7607,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7506,17 +7619,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7565,25 +7676,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7594,21 +7705,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7620,15 +7731,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7677,19 +7790,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7706,14 +7819,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7726,24 +7839,26 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7791,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7809,7 +7924,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7820,46 +7935,44 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -7883,13 +7996,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -7907,25 +8020,25 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7936,10 +8049,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7962,15 +8075,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>151</v>
+        <v>383</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8019,7 +8134,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
@@ -8048,10 +8163,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8062,7 +8177,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8074,15 +8189,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8131,13 +8248,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8160,10 +8277,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8174,7 +8291,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8186,17 +8303,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8245,25 +8360,25 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8274,14 +8389,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8300,16 +8415,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8359,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8371,13 +8486,13 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8388,42 +8503,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8471,25 +8590,25 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8500,21 +8619,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8526,17 +8645,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8585,25 +8702,25 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8614,46 +8731,42 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8701,25 +8814,25 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8730,10 +8843,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8756,15 +8869,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8813,7 +8928,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8822,7 +8937,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>98</v>
@@ -8842,10 +8957,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8856,7 +8971,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -8868,15 +8983,17 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8925,13 +9042,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -8949,6 +9066,572 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-OperationDefinition.xlsx
+++ b/StructureDefinition-profile-OperationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.24593-06:00</t>
+    <t>2026-02-17T14:42:26.8677482-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.versionAlgorithm[x]` is will have a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Element `OperationDefinition.versionAlgorithm[x]` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A copyright statement relating to the operation definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the operation definition.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.copyright` is will have a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Element `OperationDefinition.copyright` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>OperationDefinition.extension:copyrightLabel</t>
@@ -501,7 +501,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.copyrightLabel` is will have a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Element `OperationDefinition.copyrightLabel` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>OperationDefinition.modifierExtension</t>
@@ -991,44 +991,21 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>OperationDefinition.parameter.extension:scope</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter.scope|0.0.1-snapshot-3}
+    <t>OperationDefinition.parameter.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for OperationDefinition.parameter.scope from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>If present, indicates that the parameter applies when the operation is being invoked at the specified level.</t>
-  </si>
-  <si>
-    <t>Element `OperationDefinition.parameter.scope` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.scope` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
-    <t>OperationDefinition.parameter.extension:allowedType</t>
-  </si>
-  <si>
-    <t>allowedType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter.allowedType|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.parameter.allowedType from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Support for polymorphic types. If the parameter type is abstract, this element lists allowed sub-types for the parameter.</t>
-  </si>
-  <si>
-    <t>Element `OperationDefinition.parameter.allowedType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.allowedType` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Cross-version extension for OperationDefinition.parameter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.parameter` has is mapped to FHIR R4 element `OperationDefinition.parameter`, but has no comparisons.
+Note available implied context: `OperationDefinition.parameter.part` because `OperationDefinition.parameter.part` is defined as a content reference to `OperationDefinition.parameter`.</t>
   </si>
   <si>
     <t>OperationDefinition.parameter.modifierExtension</t>
@@ -1288,6 +1265,22 @@
   </si>
   <si>
     <t>OperationDefinition.overload.extension</t>
+  </si>
+  <si>
+    <t>OperationDefinition.overload.extension:overload</t>
+  </si>
+  <si>
+    <t>overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.overload|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.overload from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.overload` has is mapped to FHIR R4 element `OperationDefinition.overload`, but has no comparisons.</t>
   </si>
   <si>
     <t>OperationDefinition.overload.modifierExtension</t>
@@ -1634,7 +1627,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6263,10 +6256,10 @@
         <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6345,16 +6338,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6367,24 +6358,26 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6432,7 +6425,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6441,7 +6434,7 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>137</v>
@@ -6450,7 +6443,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6461,46 +6454,44 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6548,25 +6539,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6577,10 +6568,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6606,13 +6597,13 @@
         <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6638,13 +6629,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6662,7 +6653,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6691,10 +6682,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6717,7 +6708,7 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>335</v>
@@ -6725,9 +6716,7 @@
       <c r="M45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6752,13 +6741,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6765,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -6805,10 +6794,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6831,13 +6820,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6888,7 +6877,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6917,10 +6906,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6928,7 +6917,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -6946,10 +6935,10 @@
         <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7000,10 +6989,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -7029,10 +7018,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7055,15 +7044,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7088,13 +7079,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7112,7 +7103,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7121,7 +7112,7 @@
         <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>98</v>
@@ -7155,7 +7146,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7167,7 +7158,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>351</v>
@@ -7202,13 +7193,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7232,10 +7223,10 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>98</v>
@@ -7255,10 +7246,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7269,7 +7260,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7281,17 +7272,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7316,13 +7305,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7340,16 +7329,16 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>98</v>
@@ -7369,10 +7358,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7395,13 +7384,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7428,13 +7417,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7441,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7461,7 +7450,7 @@
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
@@ -7481,10 +7470,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7507,13 +7496,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7564,7 +7553,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7576,13 +7565,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7593,21 +7582,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7619,15 +7608,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7676,19 +7667,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7705,14 +7696,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7725,24 +7716,26 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7790,7 +7783,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7808,7 +7801,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7819,46 +7812,44 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7882,13 +7873,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7906,25 +7897,25 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7942,7 +7933,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7961,7 +7952,7 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>377</v>
@@ -7996,13 +7987,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8049,10 +8040,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8060,10 +8051,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8075,16 +8066,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8134,13 +8125,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8163,10 +8154,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8177,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8189,17 +8180,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8248,25 +8237,25 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8277,21 +8266,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8303,15 +8292,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8360,19 +8351,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8389,14 +8380,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8409,24 +8400,26 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8474,7 +8467,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8492,7 +8485,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8503,46 +8496,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8590,25 +8579,25 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8619,10 +8608,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8630,7 +8619,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8648,10 +8637,10 @@
         <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8702,10 +8691,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -8731,10 +8720,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8745,7 +8734,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8757,15 +8746,17 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8814,16 +8805,16 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -8843,10 +8834,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8869,16 +8860,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8928,7 +8919,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8937,7 +8928,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>98</v>
@@ -8957,10 +8948,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8971,7 +8962,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -8983,17 +8974,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9042,25 +9031,25 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9071,10 +9060,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9085,7 +9074,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9097,13 +9086,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9142,37 +9131,35 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9183,14 +9170,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9209,16 +9198,16 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>404</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>161</v>
+        <v>406</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9277,7 +9266,7 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>137</v>
@@ -9286,7 +9275,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9297,14 +9286,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9326,10 +9315,10 @@
         <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>161</v>
@@ -9384,7 +9373,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9413,10 +9402,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9442,10 +9431,10 @@
         <v>172</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9496,7 +9485,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9525,10 +9514,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9554,10 +9543,10 @@
         <v>172</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9608,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-profile-OperationDefinition.xlsx
+++ b/StructureDefinition-profile-OperationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8677482-06:00</t>
+    <t>2026-02-20T11:59:20.9042731-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/OperationDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/OperationDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,13 +443,73 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>OperationDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyright}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
+Element `OperationDefinition.copyright` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
+    <t>OperationDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `OperationDefinition.copyrightLabel` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
+    <t>OperationDefinition.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-identifier}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
+Element `OperationDefinition.identifier` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+  </si>
+  <si>
     <t>OperationDefinition.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -459,49 +519,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.versionAlgorithm[x]` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>OperationDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.copyright|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the operation definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the operation definition.</t>
-  </si>
-  <si>
-    <t>Element `OperationDefinition.copyright` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
-    <t>OperationDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `OperationDefinition.copyrightLabel` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `OperationDefinition.versionAlgorithm[x]` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>OperationDefinition.modifierExtension</t>
@@ -997,7 +1016,7 @@
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter}
 </t>
   </si>
   <si>
@@ -1008,6 +1027,10 @@
 Note available implied context: `OperationDefinition.parameter.part` because `OperationDefinition.parameter.part` is defined as a content reference to `OperationDefinition.parameter`.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>OperationDefinition.parameter.modifierExtension</t>
   </si>
   <si>
@@ -1273,7 +1296,7 @@
     <t>overload</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.overload|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.overload}
 </t>
   </si>
   <si>
@@ -1608,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1627,7 +1650,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2782,7 +2805,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2802,13 +2825,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -2830,16 +2853,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2898,7 +2921,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -2918,13 +2941,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -2934,7 +2957,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2946,16 +2969,16 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3014,7 +3037,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>137</v>
@@ -3034,33 +3057,35 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
@@ -3071,9 +3096,7 @@
       <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3121,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3139,7 +3162,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3150,45 +3173,45 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3237,28 +3260,28 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3266,10 +3289,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3292,18 +3315,20 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3351,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3366,13 +3391,13 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3380,10 +3405,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3391,7 +3416,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3406,20 +3431,18 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3467,28 +3490,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3496,10 +3519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3507,7 +3530,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3522,18 +3545,20 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3581,22 +3606,22 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3610,10 +3635,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3621,7 +3646,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3630,22 +3655,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3671,13 +3696,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3695,10 +3720,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3710,13 +3735,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3724,10 +3749,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3744,7 +3769,7 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
@@ -3753,13 +3778,13 @@
         <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3785,13 +3810,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3809,7 +3834,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3824,13 +3849,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3838,10 +3863,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3849,7 +3874,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -3864,20 +3889,18 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3901,13 +3924,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3925,10 +3948,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -3940,13 +3963,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3954,14 +3977,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3980,18 +4003,20 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4039,7 +4064,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4054,13 +4079,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4068,14 +4093,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4094,20 +4119,18 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4155,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4170,13 +4193,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4184,10 +4207,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4198,7 +4221,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4210,18 +4233,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4269,13 +4294,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4284,13 +4309,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4298,10 +4323,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4312,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4321,19 +4346,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4383,13 +4408,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4398,7 +4423,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4412,10 +4437,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4426,7 +4451,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4435,23 +4460,21 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4499,13 +4522,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4514,7 +4537,7 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4528,10 +4551,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4554,18 +4577,20 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4589,13 +4614,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4613,7 +4638,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4628,7 +4653,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4642,10 +4667,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4656,7 +4681,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4665,19 +4690,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4703,13 +4728,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4727,13 +4752,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4748,18 +4773,18 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4779,19 +4804,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4841,7 +4866,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4856,24 +4881,24 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4881,7 +4906,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4896,15 +4921,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4953,10 +4980,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4982,10 +5009,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4993,7 +5020,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5005,16 +5032,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5065,10 +5092,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -5094,10 +5121,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5117,20 +5144,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>275</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5179,7 +5204,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5194,7 +5219,7 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5208,10 +5233,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5222,7 +5247,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5234,7 +5259,7 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>278</v>
@@ -5269,13 +5294,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5293,13 +5318,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5308,7 +5333,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5322,10 +5347,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5333,10 +5358,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5348,15 +5373,17 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5381,13 +5408,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5405,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5420,7 +5447,7 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5434,10 +5461,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5460,13 +5487,13 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5517,7 +5544,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5546,10 +5573,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5572,13 +5599,13 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5629,7 +5656,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5658,10 +5685,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5669,7 +5696,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5681,20 +5708,18 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>297</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5743,10 +5768,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5798,16 +5823,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5886,10 +5911,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5900,7 +5925,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5912,16 +5937,16 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5971,19 +5996,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6000,10 +6025,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6014,7 +6039,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6026,7 +6051,7 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>308</v>
@@ -6034,7 +6059,9 @@
       <c r="M39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6083,25 +6110,25 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6112,10 +6139,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6126,7 +6153,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6138,13 +6165,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6183,35 +6210,37 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6222,14 +6251,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6250,17 +6277,15 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6297,19 +6322,17 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6318,7 +6341,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>137</v>
@@ -6341,11 +6364,13 @@
         <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6358,26 +6383,24 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6425,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6434,7 +6457,7 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>137</v>
@@ -6443,7 +6466,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6454,44 +6477,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6539,25 +6564,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6568,10 +6593,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6597,13 +6622,13 @@
         <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6629,13 +6654,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6653,7 +6678,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6708,15 +6733,17 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6741,13 +6768,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6794,10 +6821,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6820,13 +6847,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6877,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6906,10 +6933,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6917,7 +6944,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -6932,13 +6959,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6989,10 +7016,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -7018,10 +7045,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7044,17 +7071,15 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7079,13 +7104,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7103,7 +7128,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7112,7 +7137,7 @@
         <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>98</v>
@@ -7132,10 +7157,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7146,7 +7171,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7158,16 +7183,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>294</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7193,13 +7218,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7217,16 +7242,16 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>98</v>
@@ -7246,10 +7271,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7260,7 +7285,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7272,15 +7297,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7305,13 +7332,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7329,16 +7356,16 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>98</v>
@@ -7384,7 +7411,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>361</v>
@@ -7417,13 +7444,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7450,7 +7477,7 @@
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
@@ -7470,10 +7497,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7496,13 +7523,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7553,7 +7580,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7565,13 +7592,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7582,21 +7609,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7608,17 +7635,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7667,19 +7692,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7696,14 +7721,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7716,26 +7741,24 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7783,7 +7806,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7801,7 +7824,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7812,44 +7835,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7873,13 +7898,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7897,25 +7922,25 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7926,14 +7951,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7952,16 +7977,16 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7987,13 +8012,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8011,7 +8036,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -8040,10 +8065,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8051,10 +8076,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8066,16 +8091,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8125,13 +8150,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8154,10 +8179,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8168,7 +8193,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8180,15 +8205,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8237,25 +8264,25 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8266,21 +8293,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8292,17 +8319,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8351,19 +8376,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8380,14 +8405,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8400,26 +8425,24 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8467,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8485,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8496,42 +8519,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8579,25 +8606,25 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8608,10 +8635,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8619,7 +8646,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8634,13 +8661,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8691,10 +8718,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -8720,10 +8747,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8734,7 +8761,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8746,17 +8773,15 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8805,16 +8830,16 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -8834,10 +8859,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8860,16 +8885,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8919,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8928,7 +8953,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>98</v>
@@ -8948,10 +8973,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8962,7 +8987,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -8974,15 +8999,17 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9031,25 +9058,25 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9060,10 +9087,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9074,7 +9101,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9086,13 +9113,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9131,35 +9158,37 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9170,14 +9199,12 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9198,17 +9225,15 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>404</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9245,19 +9270,17 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9266,7 +9289,7 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>137</v>
@@ -9286,14 +9309,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D68" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9306,26 +9331,24 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9373,7 +9396,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9382,7 +9405,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>137</v>
@@ -9391,7 +9414,7 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9402,14 +9425,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9422,22 +9445,26 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
+        <v>326</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9485,7 +9512,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9497,13 +9524,13 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9514,10 +9541,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9528,7 +9555,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9540,13 +9567,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9597,13 +9624,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -9621,6 +9648,118 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-OperationDefinition.xlsx
+++ b/StructureDefinition-profile-OperationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9042731-06:00</t>
+    <t>2026-02-21T13:36:54.3074921-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/OperationDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/OperationDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -419,21 +419,21 @@
     <t>OperationDefinition.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -443,91 +443,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>OperationDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyright}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
-Element `OperationDefinition.copyright` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
-    <t>OperationDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `OperationDefinition.copyrightLabel` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
-    <t>OperationDefinition.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-identifier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
-Element `OperationDefinition.identifier` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
-    <t>OperationDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `OperationDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `OperationDefinition.versionAlgorithm[x]` has a context of OperationDefinition based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
-  </si>
-  <si>
     <t>OperationDefinition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -535,9 +451,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1007,30 +920,66 @@
     <t>OperationDefinition.parameter.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>OperationDefinition.parameter.extension:parameter</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter}
+    <t>OperationDefinition.parameter.extension:scope</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter.scope|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for OperationDefinition.parameter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `OperationDefinition.parameter` has is mapped to FHIR R4 element `OperationDefinition.parameter`, but has no comparisons.
-Note available implied context: `OperationDefinition.parameter.part` because `OperationDefinition.parameter.part` is defined as a content reference to `OperationDefinition.parameter`.</t>
+    <t>Cross-version extension for OperationDefinition.parameter.scope from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If present, indicates that the parameter applies when the operation is being invoked at the specified level.</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.parameter.scope` has a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.
+Note available implied context: `OperationDefinition.parameter.part` because `OperationDefinition.parameter.part` is defined via a content reference to `OperationDefinition.parameter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>OperationDefinition.parameter.extension:allowedType</t>
+  </si>
+  <si>
+    <t>allowedType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.parameter.allowedType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OperationDefinition.parameter.allowedType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Support for polymorphic types. If the parameter type is abstract, this element lists allowed sub-types for the parameter.</t>
+  </si>
+  <si>
+    <t>Element `OperationDefinition.parameter.allowedType` has a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.
+Note available implied context: `OperationDefinition.parameter.part` because `OperationDefinition.parameter.part` is defined via a content reference to `OperationDefinition.parameter`.</t>
+  </si>
+  <si>
     <t>OperationDefinition.parameter.modifierExtension</t>
   </si>
   <si>
@@ -1177,9 +1126,6 @@
     <t>OperationDefinition.parameter.binding.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1288,22 +1234,6 @@
   </si>
   <si>
     <t>OperationDefinition.overload.extension</t>
-  </si>
-  <si>
-    <t>OperationDefinition.overload.extension:overload</t>
-  </si>
-  <si>
-    <t>overload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OperationDefinition.overload}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for OperationDefinition.overload from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `OperationDefinition.overload` has is mapped to FHIR R4 element `OperationDefinition.overload`, but has no comparisons.</t>
   </si>
   <si>
     <t>OperationDefinition.overload.modifierExtension</t>
@@ -1631,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1642,7 +1572,7 @@
   <cols>
     <col min="1" max="1" width="54.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1650,7 +1580,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2606,7 +2536,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2625,15 +2555,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2670,14 +2602,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2698,7 +2632,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2712,43 +2646,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2796,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2814,7 +2748,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2825,14 +2759,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2850,21 +2782,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2912,28 +2846,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2944,11 +2878,9 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2957,7 +2889,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2966,19 +2898,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3028,28 +2960,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3057,20 +2989,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>86</v>
@@ -3082,21 +3012,23 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3144,22 +3076,22 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3173,46 +3105,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>167</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3260,25 +3190,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3289,10 +3219,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3300,7 +3230,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3309,26 +3239,24 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3352,13 +3280,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3376,10 +3304,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3391,13 +3319,13 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3405,10 +3333,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3416,7 +3344,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3431,7 +3359,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>178</v>
@@ -3466,13 +3394,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3490,10 +3418,10 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
@@ -3505,13 +3433,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3519,10 +3447,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3530,7 +3458,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3545,19 +3473,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3606,16 +3534,16 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
@@ -3627,7 +3555,7 @@
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3642,7 +3570,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3661,16 +3589,16 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3735,13 +3663,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3749,10 +3677,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3760,7 +3688,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3769,24 +3697,26 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3810,34 +3740,34 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3849,13 +3779,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3863,10 +3793,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3874,10 +3804,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3889,16 +3819,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3924,13 +3854,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3948,13 +3878,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3963,13 +3893,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3977,10 +3907,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4000,23 +3930,21 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4064,7 +3992,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4079,13 +4007,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4093,21 +4021,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4130,7 +4058,9 @@
       <c r="N22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4178,13 +4108,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4193,13 +4123,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4221,7 +4151,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4233,20 +4163,18 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O23" t="s" s="2">
         <v>228</v>
       </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4270,13 +4198,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4300,7 +4228,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4309,13 +4237,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4323,10 +4251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4337,7 +4265,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4346,19 +4274,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4408,13 +4336,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4423,24 +4351,24 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4460,19 +4388,19 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4522,7 +4450,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4537,7 +4465,7 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4551,10 +4479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4562,10 +4490,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4577,7 +4505,7 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>245</v>
@@ -4585,12 +4513,8 @@
       <c r="M26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4638,13 +4562,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4653,7 +4577,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4667,10 +4591,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4681,7 +4605,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4690,20 +4614,18 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4728,13 +4650,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4752,13 +4674,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4767,7 +4689,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4781,10 +4703,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4804,19 +4726,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4866,7 +4788,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4881,24 +4803,24 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4909,7 +4831,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4921,16 +4843,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4956,13 +4878,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4980,13 +4902,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4995,7 +4917,7 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5009,10 +4931,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5035,13 +4957,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5092,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -5121,10 +5043,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5132,7 +5054,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
@@ -5144,16 +5066,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5204,10 +5126,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>86</v>
@@ -5233,10 +5155,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5244,7 +5166,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5259,17 +5181,15 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5318,10 +5238,10 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
@@ -5333,7 +5253,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5347,10 +5267,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5361,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5370,19 +5290,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5408,13 +5328,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5432,13 +5352,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5367,7 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5461,10 +5381,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5472,7 +5392,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5484,18 +5404,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5544,10 +5466,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5573,10 +5495,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5584,10 +5506,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5596,18 +5518,20 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5656,19 +5580,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5685,10 +5609,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5696,7 +5620,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5708,16 +5632,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5768,10 +5692,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5780,13 +5704,13 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5797,10 +5721,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5811,7 +5735,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5823,17 +5747,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5870,31 +5792,29 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5911,12 +5831,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5925,7 +5847,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5937,16 +5859,16 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5996,19 +5918,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6025,12 +5947,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6051,16 +5975,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6110,7 +6034,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6119,10 +6043,10 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6139,42 +6063,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6222,25 +6150,25 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6251,10 +6179,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6262,10 +6190,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6277,15 +6205,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6322,29 +6252,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6364,20 +6296,18 @@
         <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6389,16 +6319,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6424,13 +6354,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6448,19 +6378,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6484,26 +6414,26 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>326</v>
@@ -6511,12 +6441,8 @@
       <c r="M43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6564,25 +6490,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6593,10 +6519,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6619,17 +6545,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6678,7 +6602,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6707,10 +6631,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6718,7 +6642,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -6733,17 +6657,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6768,13 +6690,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6792,10 +6714,10 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>86</v>
@@ -6821,10 +6743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6832,7 +6754,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
@@ -6847,15 +6769,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6880,13 +6804,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6904,16 +6828,16 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>98</v>
@@ -6933,10 +6857,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6944,10 +6868,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6959,15 +6883,17 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7016,13 +6942,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7045,10 +6971,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7071,13 +6997,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7104,13 +7030,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7128,7 +7054,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7137,7 +7063,7 @@
         <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>98</v>
@@ -7157,10 +7083,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7183,17 +7109,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7218,13 +7142,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7242,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7251,7 +7175,7 @@
         <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>98</v>
@@ -7271,10 +7195,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7285,7 +7209,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7297,17 +7221,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7356,25 +7278,25 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7385,21 +7307,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7411,15 +7333,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7444,13 +7368,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7468,25 +7392,25 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7497,42 +7421,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7580,25 +7508,25 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7609,18 +7537,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7635,15 +7563,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7668,13 +7598,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7692,10 +7622,10 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>86</v>
@@ -7704,13 +7634,13 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7721,21 +7651,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7747,16 +7677,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7806,25 +7736,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7835,14 +7765,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7855,26 +7785,24 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7922,7 +7850,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7934,13 +7862,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7958,11 +7886,11 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>86</v>
@@ -7977,17 +7905,15 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8012,13 +7938,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8036,10 +7962,10 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>86</v>
@@ -8048,13 +7974,13 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8065,21 +7991,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8091,16 +8017,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8150,25 +8076,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8179,14 +8105,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8199,24 +8125,26 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8264,7 +8192,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8276,13 +8204,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8293,10 +8221,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8304,7 +8232,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8319,13 +8247,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8376,10 +8304,10 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8388,13 +8316,13 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8405,21 +8333,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8431,17 +8359,15 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8490,25 +8416,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8519,14 +8445,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8539,26 +8465,24 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8606,7 +8530,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8615,16 +8539,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8635,10 +8559,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8646,10 +8570,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8661,15 +8585,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8718,13 +8644,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8747,10 +8673,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8773,13 +8699,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>287</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8830,7 +8756,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8842,13 +8768,13 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8859,14 +8785,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8885,16 +8811,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8944,7 +8870,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8953,16 +8879,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8973,14 +8899,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8993,24 +8919,26 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9058,7 +8986,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9070,13 +8998,13 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9087,10 +9015,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9101,7 +9029,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9113,13 +9041,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9170,25 +9098,25 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9199,10 +9127,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9213,7 +9141,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9225,13 +9153,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>132</v>
+        <v>397</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>133</v>
+        <v>398</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9270,29 +9198,31 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9304,462 +9234,6 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
